--- a/supplements/Supplement 2.xlsx
+++ b/supplements/Supplement 2.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukaachen-my.sharepoint.com/personal/jschraeder_ukaachen_de/Documents/Paper/PilotStudie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juhoffmann\OneDrive - Uniklinik RWTH Aachen\Paper\PilotStudie\Revision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DBF771E-A180-B14C-A0BE-6108576A805F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25920" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17055" windowHeight="11160" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Mean Accuracy task one" sheetId="3" r:id="rId1"/>
     <sheet name="Mean Accuracy task two" sheetId="4" r:id="rId2"/>
     <sheet name="Subjective Rating task two" sheetId="1" r:id="rId3"/>
     <sheet name="Mean Accuracy pooled N=40" sheetId="2" r:id="rId4"/>
+    <sheet name="GLMM Task 1" sheetId="5" r:id="rId5"/>
+    <sheet name="GLMM Task 2" sheetId="6" r:id="rId6"/>
+    <sheet name="GLMM Task 1 + 2" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="325">
   <si>
     <t>Mean Accuracy during task one</t>
   </si>
@@ -226,6 +228,9 @@
     <t>Mean Accuracy during task two</t>
   </si>
   <si>
+    <t>Mean_Accuracy_2</t>
+  </si>
+  <si>
     <t xml:space="preserve">  25ms vs. 150ms</t>
   </si>
   <si>
@@ -238,6 +243,9 @@
     <t>Mean subjective rating during task two</t>
   </si>
   <si>
+    <t>Mean_Rating</t>
+  </si>
+  <si>
     <t xml:space="preserve">  happy yes vs. happy no</t>
   </si>
   <si>
@@ -433,6 +441,9 @@
     <t>S-V</t>
   </si>
   <si>
+    <t>Mean_Accuracy</t>
+  </si>
+  <si>
     <t xml:space="preserve">  16.7ms happy vs. 16.7ms sad</t>
   </si>
   <si>
@@ -565,23 +576,437 @@
     <t xml:space="preserve">  141.7/150ms sad vs. 141.7/150ms neutral</t>
   </si>
   <si>
-    <t>Mean_Accuracy_Task_1.csv</t>
-  </si>
-  <si>
-    <t>Mean_Accuracy_Task_2.csv</t>
-  </si>
-  <si>
-    <t>Mean_Rating.csv</t>
-  </si>
-  <si>
-    <t>Mean_Accuracy.csv</t>
+    <t>Generalized linear mixed model fit by maximum likelihood (Laplace Approximation) ['glmerMod']</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Family: binomial  ( logit )</t>
+  </si>
+  <si>
+    <t>Formula: correct ~ level + stim + (1 + real_trial_number | subj_idx)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Data: data_study1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     AIC      BIC   logLik deviance df.resid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4335.2   4396.2  -2158.6   4317.2     6492 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scaled residuals: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Min       1Q   Median       3Q      Max </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-11.2294   0.1016   0.1645   0.3917   3.2265 </t>
+  </si>
+  <si>
+    <t>Random effects:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Groups   Name              Variance  Std.Dev. Corr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> subj_idx (Intercept)       2.986e-01 0.5464        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          real_trial_number 1.209e-06 0.0011   -0.77</t>
+  </si>
+  <si>
+    <t>Number of obs: 6501, groups:  subj_idx, 20</t>
+  </si>
+  <si>
+    <t>Fixed effects:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Estimate Std. Error z value Pr(&gt;|z|)    </t>
+  </si>
+  <si>
+    <t>(Intercept)  1.31938    0.10009  13.182  &lt; 2e-16 ***</t>
+  </si>
+  <si>
+    <t>level1      -1.84291    0.07685 -23.981  &lt; 2e-16 ***</t>
+  </si>
+  <si>
+    <t>level2      -0.59753    0.06637  -9.002  &lt; 2e-16 ***</t>
+  </si>
+  <si>
+    <t>level3       0.33426    0.07733   4.322 1.54e-05 ***</t>
+  </si>
+  <si>
+    <t>stim1        0.57490    0.05887   9.765  &lt; 2e-16 ***</t>
+  </si>
+  <si>
+    <t>stim2       -1.37133    0.05748 -23.856  &lt; 2e-16 ***</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>Signif. codes:  0 ‘***’ 0.001 ‘**’ 0.01 ‘*’ 0.05 ‘.’ 0.1 ‘ ’ 1</t>
+  </si>
+  <si>
+    <t>Correlation of Fixed Effects:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       (Intr) level1 level2 level3 stim1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">level1 -0.221                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">level2 -0.052 -0.197                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">level3  0.215 -0.458 -0.338              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stim1   0.047 -0.110 -0.052  0.015       </t>
+  </si>
+  <si>
+    <t>stim2  -0.139  0.320  0.145 -0.126 -0.442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Data: data_study2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3078.8   3137.3  -1530.4   3060.8     4929 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15.4349   0.0967   0.2004   0.3655   5.0033 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> subj_idx (Intercept)       2.996e-01 0.54731       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          real_trial_number 2.075e-06 0.00144  -0.72</t>
+  </si>
+  <si>
+    <t>Number of obs: 4938, groups:  subj_idx, 20</t>
+  </si>
+  <si>
+    <t>(Intercept)  1.61994    0.10961  14.779  &lt; 2e-16 ***</t>
+  </si>
+  <si>
+    <t>level1      -2.25003    0.15110 -14.891  &lt; 2e-16 ***</t>
+  </si>
+  <si>
+    <t>level2      -0.46421    0.08115  -5.721 1.06e-08 ***</t>
+  </si>
+  <si>
+    <t>level3       0.67991    0.08487   8.011 1.14e-15 ***</t>
+  </si>
+  <si>
+    <t>stim1        1.37752    0.08879  15.514  &lt; 2e-16 ***</t>
+  </si>
+  <si>
+    <t>stim2       -1.93445    0.07368 -26.253  &lt; 2e-16 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level1  0.219                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">level2 -0.237 -0.460                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">level3 -0.136 -0.596  0.016              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stim1   0.134 -0.227 -0.056  0.173       </t>
+  </si>
+  <si>
+    <t>stim2  -0.201  0.330  0.149 -0.242 -0.560</t>
+  </si>
+  <si>
+    <t>probability of making a correct response during level1 trials</t>
+  </si>
+  <si>
+    <t>probability of making a correct response during level2 trials</t>
+  </si>
+  <si>
+    <t>probability of making a correct response during level3 trials</t>
+  </si>
+  <si>
+    <t>probability of making a correct response during level4 trials</t>
+  </si>
+  <si>
+    <t>Formula: correct ~ level + stim + study_number + (1 + real_trial_number |      subj_idx)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Data: data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7481.5   7555.0  -3730.8   7461.5    11429 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-12.5823   0.0987   0.2044   0.3710   3.7749 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Groups   Name              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> subj_idx (Intercept)      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          real_trial_number </t>
+  </si>
+  <si>
+    <t>Number of obs: 11439, groups:  subj_idx, 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Intercept)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">level1        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">level2        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">level3      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stim1        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stim2        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">study_number1         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            (Intr) level1 level2 level3 stim1  stim2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">level1      -0.033                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">level2      -0.096 -0.291                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">level3       0.052 -0.514 -0.186                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stim1        0.076 -0.165 -0.084  0.085              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stim2       -0.167  0.339  0.161 -0.173 -0.473       </t>
+  </si>
+  <si>
+    <t>study_nmbr1 -0.028 -0.184  0.090  0.161  0.019 -0.010</t>
+  </si>
+  <si>
+    <t>Drift rate Model 2</t>
+  </si>
+  <si>
+    <t>Linear mixed model fit by REML. t-tests use Satterthwaite's method ['lmerModLmerTest']</t>
+  </si>
+  <si>
+    <t>Formula: DriftRate ~ BDI_Sum + BVAQ_Sum + stim + age + gender + task +      (1 | subj_idx)</t>
+  </si>
+  <si>
+    <t>REML criterion at convergence: 176.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Min      1Q  Median      3Q     Max </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.3774 -0.6193 -0.0364  0.6477  2.8434 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Groups  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> subj_idx </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Residual            </t>
+  </si>
+  <si>
+    <t>Number of obs: 120, groups:  subj_idx, 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Intercept) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDI_Sum      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BVAQ_Sum    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stim1       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stim2       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">age         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender1      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">task         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         (Intr) BDI_Sm BVAQ_S stim1  stim2  age    gendr1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDI_Sum  -0.471                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BVAQ_Sum  0.019 -0.324                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stim1     0.000  0.000  0.000                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stim2     0.000  0.000  0.000 -0.500                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">age      -0.927  0.362 -0.149  0.000  0.000              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender1   0.159 -0.290  0.218  0.000  0.000 -0.217       </t>
+  </si>
+  <si>
+    <t>task     -0.311  0.269 -0.244  0.000  0.000  0.030  0.087</t>
+  </si>
+  <si>
+    <t>Response correctness Model 1</t>
+  </si>
+  <si>
+    <t>Drift Rate Model 2</t>
+  </si>
+  <si>
+    <t>Formula: DriftRate ~ BDI_Sum + BVAQ_Sum + stim + age + gender + (1 | subj_idx)</t>
+  </si>
+  <si>
+    <t>REML criterion at convergence: 88.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.6758 -0.6134 -0.1365  0.5779  2.5805 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Groups   Name        Variance Std.Dev.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> subj_idx (Intercept) 0.02358  0.1535  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Residual             0.14691  0.3833  </t>
+  </si>
+  <si>
+    <t>Number of obs: 60, groups:  subj_idx, 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Estimate Std. Error       df t value Pr(&gt;|t|)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Intercept)  0.56397    0.63417 15.00000   0.889    0.388    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDI_Sum      0.02705    0.03288 15.00000   0.823    0.424    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BVAQ_Sum     0.01522    0.01391 15.00000   1.094    0.291    </t>
+  </si>
+  <si>
+    <t>stim1        0.56593    0.06998 38.00000   8.087 8.76e-10 ***</t>
+  </si>
+  <si>
+    <t>stim2       -0.76928    0.06998 38.00000 -10.993 2.31e-13 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age          0.01801    0.02371 15.00000   0.760    0.459    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender1     -0.05139    0.06520 15.00000  -0.788    0.443    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         (Intr) BDI_Sm BVAQ_S stim1  stim2  age   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDI_Sum  -0.504                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BVAQ_Sum  0.232 -0.401                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stim1     0.000  0.000  0.000                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stim2     0.000  0.000  0.000 -0.500              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">age      -0.977  0.457 -0.383  0.000  0.000       </t>
+  </si>
+  <si>
+    <t>gender1   0.033 -0.258 -0.073  0.000  0.000 -0.003</t>
+  </si>
+  <si>
+    <t>Drift Rate Mode 2</t>
+  </si>
+  <si>
+    <t>REML criterion at convergence: 96.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.3729 -0.5174  0.0136  0.6488  1.8782 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> subj_idx (Intercept) 0.04622  0.2150  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Residual             0.16873  0.4108  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Intercept)  0.14614    0.81367 15.00000   0.180    0.860    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDI_Sum     -0.03232    0.09708 15.00000  -0.333    0.744    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BVAQ_Sum     0.03981    0.02369 15.00000   1.680    0.114    </t>
+  </si>
+  <si>
+    <t>stim1        0.72534    0.07500 38.00000   9.672 8.56e-12 ***</t>
+  </si>
+  <si>
+    <t>stim2       -1.06928    0.07500 38.00000 -14.258  &lt; 2e-16 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age          0.03814    0.02568 15.00000   1.485    0.158    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender1      0.14568    0.09032 15.00000   1.613    0.128    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDI_Sum  -0.398                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BVAQ_Sum -0.371 -0.032                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">age      -0.928  0.236  0.078  0.000  0.000       </t>
+  </si>
+  <si>
+    <t>gender1   0.038  0.026  0.515  0.000  0.000 -0.222</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -723,6 +1148,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF2E74B5"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1066,9 +1504,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1389,25 +1836,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.1640625" customWidth="1"/>
-    <col min="10" max="10" width="38.1640625" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="10" max="10" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1415,21 +1862,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="K4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1437,7 +1884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1451,7 +1898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1465,7 +1912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1479,7 +1926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1493,7 +1940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1507,7 +1954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1521,7 +1968,7 @@
         <v>121.1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1529,7 +1976,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1543,7 +1990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1557,7 +2004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1571,7 +2018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1585,7 +2032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1599,7 +2046,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1631,7 +2078,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1651,7 +2098,7 @@
         <v>28</v>
       </c>
       <c r="J24" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K24">
         <v>44</v>
@@ -1669,7 +2116,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1689,7 +2136,7 @@
         <v>34</v>
       </c>
       <c r="J25" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K25">
         <v>-34</v>
@@ -1707,7 +2154,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1727,7 +2174,7 @@
         <v>38</v>
       </c>
       <c r="J26" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K26">
         <v>-78</v>
@@ -1745,9 +2192,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B27">
         <v>-9</v>
@@ -1765,7 +2212,7 @@
         <v>41</v>
       </c>
       <c r="J27" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K27">
         <v>109.5</v>
@@ -1783,9 +2230,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B28">
         <v>-39.5</v>
@@ -1803,7 +2250,7 @@
         <v>44</v>
       </c>
       <c r="J28" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K28">
         <v>22.5</v>
@@ -1821,9 +2268,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B29">
         <v>-91</v>
@@ -1841,7 +2288,7 @@
         <v>46</v>
       </c>
       <c r="J29" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K29">
         <v>-87</v>
@@ -1859,9 +2306,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B30">
         <v>-30.5</v>
@@ -1897,9 +2344,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B31">
         <v>-82</v>
@@ -1935,9 +2382,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B32">
         <v>-51.5</v>
@@ -1973,9 +2420,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J33" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K33">
         <v>48</v>
@@ -1993,7 +2440,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -2016,7 +2463,7 @@
         <v>63</v>
       </c>
       <c r="J34" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K34">
         <v>36</v>
@@ -2034,7 +2481,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -2057,7 +2504,7 @@
         <v>4.5010000000000003</v>
       </c>
       <c r="J35" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K35">
         <v>-12</v>
@@ -2075,7 +2522,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -2098,7 +2545,7 @@
         <v>0.4758</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2142,9 +2589,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B38">
         <v>40</v>
@@ -2165,7 +2612,7 @@
         <v>0.65869999999999995</v>
       </c>
       <c r="J38" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K38">
         <v>89.5</v>
@@ -2186,9 +2633,9 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B39">
         <v>40</v>
@@ -2209,7 +2656,7 @@
         <v>2.891</v>
       </c>
       <c r="J39" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K39">
         <v>89.5</v>
@@ -2230,9 +2677,9 @@
         <v>1.4910000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B40">
         <v>40</v>
@@ -2253,7 +2700,7 @@
         <v>6.6609999999999996</v>
       </c>
       <c r="J40" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K40">
         <v>45.5</v>
@@ -2274,9 +2721,9 @@
         <v>3.4209999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B41">
         <v>49</v>
@@ -2297,7 +2744,7 @@
         <v>2.2320000000000002</v>
       </c>
       <c r="J41" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K41">
         <v>154</v>
@@ -2318,9 +2765,9 @@
         <v>4.8019999999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B42">
         <v>49</v>
@@ -2341,7 +2788,7 @@
         <v>6.0019999999999998</v>
       </c>
       <c r="J42" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K42">
         <v>154</v>
@@ -2362,9 +2809,9 @@
         <v>0.98670000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B43">
         <v>79.5</v>
@@ -2385,7 +2832,7 @@
         <v>3.7690000000000001</v>
       </c>
       <c r="J43" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K43">
         <v>44.5</v>
@@ -2406,7 +2853,7 @@
         <v>3.8149999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J44" t="s">
         <v>49</v>
       </c>
@@ -2429,7 +2876,7 @@
         <v>4.1660000000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J45" t="s">
         <v>52</v>
       </c>
@@ -2452,7 +2899,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J46" t="s">
         <v>55</v>
       </c>
@@ -2475,9 +2922,9 @@
         <v>2.9159999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J47" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K47">
         <v>209</v>
@@ -2498,9 +2945,9 @@
         <v>2.105</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J48" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K48">
         <v>209</v>
@@ -2521,9 +2968,9 @@
         <v>1.579</v>
       </c>
     </row>
-    <row r="49" spans="10:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J49" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K49">
         <v>161</v>
@@ -2550,25 +2997,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5" customWidth="1"/>
-    <col min="10" max="10" width="45.33203125" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="10" max="10" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2576,21 +3023,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2598,7 +3045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2612,7 +3059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2626,7 +3073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2640,7 +3087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2654,7 +3101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2668,7 +3115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2682,7 +3129,7 @@
         <v>155.6</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2690,7 +3137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2704,7 +3151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2718,7 +3165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2732,7 +3179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2746,7 +3193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2760,7 +3207,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2792,7 +3239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2812,7 +3259,7 @@
         <v>28</v>
       </c>
       <c r="J24" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K24">
         <v>39.5</v>
@@ -2830,7 +3277,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -2850,7 +3297,7 @@
         <v>34</v>
       </c>
       <c r="J25" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K25">
         <v>12</v>
@@ -2868,7 +3315,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2888,7 +3335,7 @@
         <v>38</v>
       </c>
       <c r="J26" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K26">
         <v>-27.5</v>
@@ -2906,9 +3353,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B27">
         <v>-32</v>
@@ -2926,7 +3373,7 @@
         <v>41</v>
       </c>
       <c r="J27" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K27">
         <v>99.5</v>
@@ -2944,9 +3391,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B28">
         <v>-55</v>
@@ -2964,7 +3411,7 @@
         <v>44</v>
       </c>
       <c r="J28" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K28">
         <v>22.5</v>
@@ -2982,9 +3429,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B29">
         <v>-84</v>
@@ -3002,7 +3449,7 @@
         <v>46</v>
       </c>
       <c r="J29" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K29">
         <v>-77</v>
@@ -3020,9 +3467,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B30">
         <v>-23</v>
@@ -3058,9 +3505,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B31">
         <v>-52</v>
@@ -3096,9 +3543,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B32">
         <v>-29</v>
@@ -3134,9 +3581,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K33">
         <v>54.5</v>
@@ -3154,7 +3601,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -3177,7 +3624,7 @@
         <v>63</v>
       </c>
       <c r="J34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K34">
         <v>15.5</v>
@@ -3195,7 +3642,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -3218,7 +3665,7 @@
         <v>6.0019999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -3262,7 +3709,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -3285,7 +3732,7 @@
         <v>5.05</v>
       </c>
       <c r="J37" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K37">
         <v>76</v>
@@ -3306,9 +3753,9 @@
         <v>1.732</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B38">
         <v>28</v>
@@ -3329,7 +3776,7 @@
         <v>2.3420000000000001</v>
       </c>
       <c r="J38" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K38">
         <v>76</v>
@@ -3350,9 +3797,9 @@
         <v>0.5262</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B39">
         <v>28</v>
@@ -3373,7 +3820,7 @@
         <v>4.0259999999999998</v>
       </c>
       <c r="J39" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K39">
         <v>36.5</v>
@@ -3394,9 +3841,9 @@
         <v>1.206</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B40">
         <v>28</v>
@@ -3417,7 +3864,7 @@
         <v>6.1479999999999997</v>
       </c>
       <c r="J40" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K40">
         <v>167</v>
@@ -3438,9 +3885,9 @@
         <v>4.3630000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B41">
         <v>60</v>
@@ -3461,7 +3908,7 @@
         <v>1.6830000000000001</v>
       </c>
       <c r="J41" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K41">
         <v>167</v>
@@ -3482,9 +3929,9 @@
         <v>0.98670000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B42">
         <v>60</v>
@@ -3505,7 +3952,7 @@
         <v>3.806</v>
       </c>
       <c r="J42" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K42">
         <v>67.5</v>
@@ -3526,9 +3973,9 @@
         <v>3.3769999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B43">
         <v>83</v>
@@ -3570,7 +4017,7 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J44" t="s">
         <v>52</v>
       </c>
@@ -3593,7 +4040,7 @@
         <v>1.3380000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J45" t="s">
         <v>55</v>
       </c>
@@ -3616,9 +4063,9 @@
         <v>3.552</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J46" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K46">
         <v>200</v>
@@ -3639,9 +4086,9 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J47" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K47">
         <v>200</v>
@@ -3668,30 +4115,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O67" sqref="O67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="31.5" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="31.5703125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3699,22 +4146,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s">
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3722,7 +4169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3736,7 +4183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3750,7 +4197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3764,7 +4211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3778,7 +4225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3792,7 +4239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -3806,7 +4253,7 @@
         <v>176.7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -3814,7 +4261,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -3828,7 +4275,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -3842,7 +4289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3856,7 +4303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3870,7 +4317,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3884,7 +4331,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3916,9 +4363,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B25">
         <v>96.5</v>
@@ -3933,10 +4380,10 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I25" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J25">
         <v>-161.5</v>
@@ -3951,12 +4398,12 @@
         <v>7</v>
       </c>
       <c r="N25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B26">
         <v>116</v>
@@ -3971,10 +4418,10 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I26" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="J26">
         <v>-23.5</v>
@@ -3989,12 +4436,12 @@
         <v>33</v>
       </c>
       <c r="N26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B27">
         <v>19.5</v>
@@ -4009,10 +4456,10 @@
         <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="J27">
         <v>138</v>
@@ -4030,9 +4477,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B28">
         <v>44</v>
@@ -4050,7 +4497,7 @@
         <v>28</v>
       </c>
       <c r="I28" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J28">
         <v>10.5</v>
@@ -4065,12 +4512,12 @@
         <v>33</v>
       </c>
       <c r="N28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B29">
         <v>54</v>
@@ -4088,7 +4535,7 @@
         <v>34</v>
       </c>
       <c r="I29" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J29">
         <v>-18.5</v>
@@ -4103,12 +4550,12 @@
         <v>33</v>
       </c>
       <c r="N29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B30">
         <v>10</v>
@@ -4126,7 +4573,7 @@
         <v>38</v>
       </c>
       <c r="I30" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J30">
         <v>-29</v>
@@ -4144,9 +4591,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B31">
         <v>62.5</v>
@@ -4164,7 +4611,7 @@
         <v>41</v>
       </c>
       <c r="I31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J31">
         <v>95</v>
@@ -4179,12 +4626,12 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="N31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B32">
         <v>29</v>
@@ -4202,7 +4649,7 @@
         <v>44</v>
       </c>
       <c r="I32" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J32">
         <v>55.5</v>
@@ -4217,12 +4664,12 @@
         <v>0.44819999999999999</v>
       </c>
       <c r="N32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B33">
         <v>-33.5</v>
@@ -4240,7 +4687,7 @@
         <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J33">
         <v>-39.5</v>
@@ -4258,9 +4705,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B34">
         <v>30.5</v>
@@ -4275,10 +4722,10 @@
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I34" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J34">
         <v>181</v>
@@ -4293,12 +4740,12 @@
         <v>7</v>
       </c>
       <c r="N34" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B35">
         <v>32</v>
@@ -4313,10 +4760,10 @@
         <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I35" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J35">
         <v>176.5</v>
@@ -4331,12 +4778,12 @@
         <v>7</v>
       </c>
       <c r="N35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B36">
         <v>1.5</v>
@@ -4351,10 +4798,10 @@
         <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I36" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J36">
         <v>-4.5</v>
@@ -4372,9 +4819,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B37">
         <v>-22</v>
@@ -4389,10 +4836,10 @@
         <v>33</v>
       </c>
       <c r="F37" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I37" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J37">
         <v>-85</v>
@@ -4407,12 +4854,12 @@
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="N37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B38">
         <v>-2</v>
@@ -4427,10 +4874,10 @@
         <v>33</v>
       </c>
       <c r="F38" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I38" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J38">
         <v>-134.5</v>
@@ -4445,12 +4892,12 @@
         <v>7</v>
       </c>
       <c r="N38" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B39">
         <v>20</v>
@@ -4465,10 +4912,10 @@
         <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I39" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="J39">
         <v>-173.5</v>
@@ -4483,12 +4930,12 @@
         <v>7</v>
       </c>
       <c r="N39" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B40">
         <v>-31.5</v>
@@ -4503,10 +4950,10 @@
         <v>33</v>
       </c>
       <c r="F40" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I40" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J40">
         <v>-49.5</v>
@@ -4521,12 +4968,12 @@
         <v>0.89859999999999995</v>
       </c>
       <c r="N40" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B41">
         <v>-55</v>
@@ -4541,10 +4988,10 @@
         <v>2.69E-2</v>
       </c>
       <c r="F41" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I41" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J41">
         <v>-88.5</v>
@@ -4559,12 +5006,12 @@
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="N41" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B42">
         <v>-23.5</v>
@@ -4579,10 +5026,10 @@
         <v>33</v>
       </c>
       <c r="F42" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I42" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J42">
         <v>-39</v>
@@ -4597,12 +5044,12 @@
         <v>33</v>
       </c>
       <c r="N42" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I43" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J43">
         <v>87</v>
@@ -4617,10 +5064,10 @@
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="N43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -4643,7 +5090,7 @@
         <v>63</v>
       </c>
       <c r="I44" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J44">
         <v>122</v>
@@ -4658,12 +5105,12 @@
         <v>7</v>
       </c>
       <c r="N44" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B45">
         <v>165.5</v>
@@ -4684,7 +5131,7 @@
         <v>5.5709999999999997</v>
       </c>
       <c r="I45" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J45">
         <v>169</v>
@@ -4699,12 +5146,12 @@
         <v>7</v>
       </c>
       <c r="N45" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B46">
         <v>165.5</v>
@@ -4725,7 +5172,7 @@
         <v>6.6970000000000001</v>
       </c>
       <c r="I46" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J46">
         <v>35</v>
@@ -4740,12 +5187,12 @@
         <v>33</v>
       </c>
       <c r="N46" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B47">
         <v>69</v>
@@ -4766,7 +5213,7 @@
         <v>1.1259999999999999</v>
       </c>
       <c r="I47" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J47">
         <v>82</v>
@@ -4781,12 +5228,12 @@
         <v>9.7000000000000003E-3</v>
       </c>
       <c r="N47" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B48">
         <v>135</v>
@@ -4807,7 +5254,7 @@
         <v>2.54</v>
       </c>
       <c r="I48" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J48">
         <v>47</v>
@@ -4822,12 +5269,12 @@
         <v>33</v>
       </c>
       <c r="N48" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B49">
         <v>135</v>
@@ -4848,7 +5295,7 @@
         <v>3.1179999999999999</v>
       </c>
       <c r="I49" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J49">
         <v>-80</v>
@@ -4863,12 +5310,12 @@
         <v>1.35E-2</v>
       </c>
       <c r="N49" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B50">
         <v>91</v>
@@ -4889,7 +5336,7 @@
         <v>0.57740000000000002</v>
       </c>
       <c r="I50" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J50">
         <v>-55.5</v>
@@ -4904,12 +5351,12 @@
         <v>0.44819999999999999</v>
       </c>
       <c r="N50" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B51">
         <v>133.5</v>
@@ -4930,7 +5377,7 @@
         <v>3.6080000000000001</v>
       </c>
       <c r="I51" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J51">
         <v>26.5</v>
@@ -4945,12 +5392,12 @@
         <v>33</v>
       </c>
       <c r="N51" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B52">
         <v>133.5</v>
@@ -4971,7 +5418,7 @@
         <v>1.6739999999999999</v>
       </c>
       <c r="I52" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="J52">
         <v>24.5</v>
@@ -4986,12 +5433,12 @@
         <v>33</v>
       </c>
       <c r="N52" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>71</v>
@@ -5012,7 +5459,7 @@
         <v>1.9339999999999999</v>
       </c>
       <c r="I53" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="J53">
         <v>106.5</v>
@@ -5027,12 +5474,12 @@
         <v>7</v>
       </c>
       <c r="N53" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54">
         <v>165.5</v>
@@ -5053,7 +5500,7 @@
         <v>1.7609999999999999</v>
       </c>
       <c r="I54" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J54">
         <v>82</v>
@@ -5068,12 +5515,12 @@
         <v>9.7000000000000003E-3</v>
       </c>
       <c r="N54" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B55">
         <v>165.5</v>
@@ -5094,9 +5541,9 @@
         <v>1.8480000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B56">
         <v>135</v>
@@ -5138,9 +5585,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B57">
         <v>69</v>
@@ -5161,7 +5608,7 @@
         <v>1.27</v>
       </c>
       <c r="I57" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J57">
         <v>58</v>
@@ -5182,9 +5629,9 @@
         <v>7.0819999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B58">
         <v>69</v>
@@ -5205,7 +5652,7 @@
         <v>0.11550000000000001</v>
       </c>
       <c r="I58" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="J58">
         <v>58</v>
@@ -5226,9 +5673,9 @@
         <v>1.0309999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B59">
         <v>91</v>
@@ -5249,7 +5696,7 @@
         <v>1.155</v>
       </c>
       <c r="I59" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="J59">
         <v>219.5</v>
@@ -5270,9 +5717,9 @@
         <v>6.0519999999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B60">
         <v>49.5</v>
@@ -5293,7 +5740,7 @@
         <v>1.819</v>
       </c>
       <c r="I60" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J60">
         <v>143</v>
@@ -5314,9 +5761,9 @@
         <v>0.46050000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B61">
         <v>49.5</v>
@@ -5337,7 +5784,7 @@
         <v>3.1749999999999998</v>
       </c>
       <c r="I61" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J61">
         <v>143</v>
@@ -5358,9 +5805,9 @@
         <v>0.81130000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B62">
         <v>81</v>
@@ -5381,7 +5828,7 @@
         <v>1.357</v>
       </c>
       <c r="I62" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J62">
         <v>132.5</v>
@@ -5402,9 +5849,9 @@
         <v>1.272</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I63" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J63">
         <v>192.5</v>
@@ -5425,9 +5872,9 @@
         <v>4.1660000000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I64" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J64">
         <v>192.5</v>
@@ -5448,9 +5895,9 @@
         <v>2.4340000000000002</v>
       </c>
     </row>
-    <row r="65" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I65" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J65">
         <v>97.5</v>
@@ -5471,9 +5918,9 @@
         <v>1.732</v>
       </c>
     </row>
-    <row r="66" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I66" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J66">
         <v>231.5</v>
@@ -5494,9 +5941,9 @@
         <v>7.9370000000000003</v>
       </c>
     </row>
-    <row r="67" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I67" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J67">
         <v>231.5</v>
@@ -5517,9 +5964,9 @@
         <v>7.74</v>
       </c>
     </row>
-    <row r="68" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I68" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J68">
         <v>50.5</v>
@@ -5540,9 +5987,9 @@
         <v>0.1973</v>
       </c>
     </row>
-    <row r="69" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I69" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J69">
         <v>58</v>
@@ -5563,9 +6010,9 @@
         <v>3.7269999999999999</v>
       </c>
     </row>
-    <row r="70" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I70" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J70">
         <v>58</v>
@@ -5586,9 +6033,9 @@
         <v>5.8979999999999997</v>
       </c>
     </row>
-    <row r="71" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I71" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="J71">
         <v>58</v>
@@ -5609,9 +6056,9 @@
         <v>7.6079999999999997</v>
       </c>
     </row>
-    <row r="72" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I72" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J72">
         <v>143</v>
@@ -5632,9 +6079,9 @@
         <v>2.1709999999999998</v>
       </c>
     </row>
-    <row r="73" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I73" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J73">
         <v>143</v>
@@ -5655,9 +6102,9 @@
         <v>3.8809999999999998</v>
       </c>
     </row>
-    <row r="74" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I74" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J74">
         <v>192.5</v>
@@ -5678,9 +6125,9 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="75" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I75" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J75">
         <v>219.5</v>
@@ -5701,9 +6148,9 @@
         <v>3.8149999999999999</v>
       </c>
     </row>
-    <row r="76" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I76" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J76">
         <v>219.5</v>
@@ -5724,9 +6171,9 @@
         <v>5.35</v>
       </c>
     </row>
-    <row r="77" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I77" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J77">
         <v>219.5</v>
@@ -5747,9 +6194,9 @@
         <v>7.4109999999999996</v>
       </c>
     </row>
-    <row r="78" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I78" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J78">
         <v>132.5</v>
@@ -5770,9 +6217,9 @@
         <v>1.5349999999999999</v>
       </c>
     </row>
-    <row r="79" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I79" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J79">
         <v>132.5</v>
@@ -5793,9 +6240,9 @@
         <v>3.5960000000000001</v>
       </c>
     </row>
-    <row r="80" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I80" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J80">
         <v>97.5</v>
@@ -5816,9 +6263,9 @@
         <v>2.0609999999999999</v>
       </c>
     </row>
-    <row r="81" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I81" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J81">
         <v>81.5</v>
@@ -5839,9 +6286,9 @@
         <v>3.508</v>
       </c>
     </row>
-    <row r="82" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I82" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J82">
         <v>81.5</v>
@@ -5862,9 +6309,9 @@
         <v>2.4340000000000002</v>
       </c>
     </row>
-    <row r="83" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I83" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J83">
         <v>81.5</v>
@@ -5885,9 +6332,9 @@
         <v>1.1619999999999999</v>
       </c>
     </row>
-    <row r="84" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I84" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="J84">
         <v>161.5</v>
@@ -5908,9 +6355,9 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="85" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I85" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="J85">
         <v>161.5</v>
@@ -5931,9 +6378,9 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="86" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I86" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J86">
         <v>137</v>
@@ -5961,25 +6408,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.83203125" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
     <col min="10" max="10" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5987,22 +6434,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="J4" t="s">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6010,7 +6457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6024,7 +6471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -6038,7 +6485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -6052,7 +6499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -6066,7 +6513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -6080,7 +6527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -6094,7 +6541,7 @@
         <v>264.3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -6102,7 +6549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -6116,7 +6563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -6130,7 +6577,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -6144,7 +6591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -6158,7 +6605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -6172,7 +6619,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -6204,7 +6651,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -6224,7 +6671,7 @@
         <v>28</v>
       </c>
       <c r="J25" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K25">
         <v>83.5</v>
@@ -6242,7 +6689,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -6262,7 +6709,7 @@
         <v>34</v>
       </c>
       <c r="J26" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K26">
         <v>-22</v>
@@ -6280,7 +6727,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -6300,7 +6747,7 @@
         <v>38</v>
       </c>
       <c r="J27" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K27">
         <v>-105.5</v>
@@ -6318,9 +6765,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B28">
         <v>-41</v>
@@ -6338,7 +6785,7 @@
         <v>41</v>
       </c>
       <c r="J28" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K28">
         <v>209</v>
@@ -6356,9 +6803,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B29">
         <v>-94.5</v>
@@ -6376,7 +6823,7 @@
         <v>44</v>
       </c>
       <c r="J29" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K29">
         <v>45</v>
@@ -6394,9 +6841,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B30">
         <v>-175</v>
@@ -6414,7 +6861,7 @@
         <v>46</v>
       </c>
       <c r="J30" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K30">
         <v>-164</v>
@@ -6432,9 +6879,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B31">
         <v>-53.5</v>
@@ -6470,9 +6917,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B32">
         <v>-134</v>
@@ -6508,9 +6955,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B33">
         <v>-80.5</v>
@@ -6546,9 +6993,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J34" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K34">
         <v>102.5</v>
@@ -6566,7 +7013,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -6589,7 +7036,7 @@
         <v>63</v>
       </c>
       <c r="J35" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K35">
         <v>51.5</v>
@@ -6607,7 +7054,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -6630,7 +7077,7 @@
         <v>7.4269999999999996</v>
       </c>
       <c r="J36" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K36">
         <v>-51</v>
@@ -6648,7 +7095,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -6671,7 +7118,7 @@
         <v>1.0089999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -6715,9 +7162,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B39">
         <v>68</v>
@@ -6738,7 +7185,7 @@
         <v>2.1219999999999999</v>
       </c>
       <c r="J39" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K39">
         <v>165.5</v>
@@ -6759,9 +7206,9 @@
         <v>2.589</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B40">
         <v>68</v>
@@ -6782,7 +7229,7 @@
         <v>4.891</v>
       </c>
       <c r="J40" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K40">
         <v>165.5</v>
@@ -6803,9 +7250,9 @@
         <v>0.68220000000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B41">
         <v>68</v>
@@ -6826,7 +7273,7 @@
         <v>9.0570000000000004</v>
       </c>
       <c r="J41" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K41">
         <v>82</v>
@@ -6847,9 +7294,9 @@
         <v>3.2709999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B42">
         <v>109</v>
@@ -6870,7 +7317,7 @@
         <v>2.7690000000000001</v>
       </c>
       <c r="J42" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K42">
         <v>321</v>
@@ -6891,9 +7338,9 @@
         <v>6.4809999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B43">
         <v>109</v>
@@ -6914,7 +7361,7 @@
         <v>6.9349999999999996</v>
       </c>
       <c r="J43" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K43">
         <v>321</v>
@@ -6935,9 +7382,9 @@
         <v>1.395</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B44">
         <v>162.5</v>
@@ -6958,7 +7405,7 @@
         <v>4.1660000000000004</v>
       </c>
       <c r="J44" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K44">
         <v>112</v>
@@ -6979,7 +7426,7 @@
         <v>5.085</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J45" t="s">
         <v>49</v>
       </c>
@@ -7002,7 +7449,7 @@
         <v>6.4029999999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J46" t="s">
         <v>52</v>
       </c>
@@ -7025,7 +7472,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J47" t="s">
         <v>55</v>
       </c>
@@ -7048,9 +7495,9 @@
         <v>4.5739999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J48" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K48">
         <v>409</v>
@@ -7071,9 +7518,9 @@
         <v>3.1779999999999999</v>
       </c>
     </row>
-    <row r="49" spans="10:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J49" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K49">
         <v>409</v>
@@ -7094,9 +7541,9 @@
         <v>1.597</v>
       </c>
     </row>
-    <row r="50" spans="10:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J50" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K50">
         <v>306.5</v>
@@ -7120,4 +7567,1344 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S38"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:S1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="S1" s="4"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="S19" s="2"/>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="S21" s="2"/>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="S22" s="2"/>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="S23" s="2"/>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="S24" s="2"/>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="S25" s="2"/>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="S26" s="2"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="S27" s="2"/>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="S28" s="2"/>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="S29" s="2"/>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="S30" s="2"/>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="J31" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="S31" s="2"/>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="S32" s="2"/>
+    </row>
+    <row r="33" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="S33" s="2"/>
+    </row>
+    <row r="34" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="S34" s="2"/>
+    </row>
+    <row r="35" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="S35" s="2"/>
+    </row>
+    <row r="36" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="S36" s="2"/>
+    </row>
+    <row r="37" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="S37" s="2"/>
+    </row>
+    <row r="38" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="R1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="I7" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="I10" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="I14" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="I20" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="R27" s="2"/>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="R28" s="2"/>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="R29" s="2"/>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="R30" s="2"/>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="I31" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="R31" s="2"/>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="R32" s="2"/>
+    </row>
+    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="R33" s="2"/>
+    </row>
+    <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="R34" s="2"/>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="R35" s="2"/>
+    </row>
+    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="R36" s="2"/>
+    </row>
+    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="R37" s="2"/>
+    </row>
+    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="R38" s="2"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="R1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J2" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="J7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="J10" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="J14" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="J20" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="R27" s="2"/>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="R28" s="2"/>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="R29" s="2"/>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="R30" s="2"/>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="R31" s="2"/>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="J32" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="R32" s="2"/>
+    </row>
+    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="R33" s="2"/>
+    </row>
+    <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="R34" s="2"/>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="R35" s="2"/>
+    </row>
+    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="R36" s="2"/>
+    </row>
+    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="R37" s="2"/>
+    </row>
+    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="R38" s="2"/>
+    </row>
+    <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="R39" s="2"/>
+    </row>
+    <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="R40" s="2"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100784254B099B54C44AB6700C55EB9A552" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="46aad7a9ac1eeb01c93807f577ab6534">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5da0ba40-7af2-4e61-848e-dd5b5027cc3a" xmlns:ns4="1becbb86-4125-4595-9b30-b38d9ce8f19a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df83dd55f310f00e444b6b023348b52b" ns3:_="" ns4:_="">
+    <xsd:import namespace="5da0ba40-7af2-4e61-848e-dd5b5027cc3a"/>
+    <xsd:import namespace="1becbb86-4125-4595-9b30-b38d9ce8f19a"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5da0ba40-7af2-4e61-848e-dd5b5027cc3a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="19" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1becbb86-4125-4595-9b30-b38d9ce8f19a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Freigegeben für" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Freigegeben für - Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="18" nillable="true" ma:displayName="Freigabehinweishash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhaltstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EAB9C19-0BA7-4438-8C71-76A1A77F4F08}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1A71A4C-1C05-4254-BFC2-D58D07AF8B8C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5da0ba40-7af2-4e61-848e-dd5b5027cc3a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1becbb86-4125-4595-9b30-b38d9ce8f19a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD065318-48F7-4B70-8902-E0C49AD96DA2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5da0ba40-7af2-4e61-848e-dd5b5027cc3a"/>
+    <ds:schemaRef ds:uri="1becbb86-4125-4595-9b30-b38d9ce8f19a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>